--- a/downloads/wa_deac_bulk.xlsx
+++ b/downloads/wa_deac_bulk.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PortalPilot\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9068157-01C4-45FD-98B9-ABF770DDCC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B628967B-9E66-4364-8568-7BDC477B6B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{445FB331-9226-4A81-BC99-47DF256F7C61}"/>
   </bookViews>
@@ -81,9 +81,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,44 +402,45 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
     </row>

--- a/downloads/wa_deac_bulk.xlsx
+++ b/downloads/wa_deac_bulk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PortalPilot\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B628967B-9E66-4364-8568-7BDC477B6B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57803B6D-20E1-4B0E-A449-7323E32DF384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{445FB331-9226-4A81-BC99-47DF256F7C61}"/>
   </bookViews>
@@ -45,7 +45,7 @@
     <t>016601020870555</t>
   </si>
   <si>
-    <t>1660XXXXXXXX758</t>
+    <t>1660***5758</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
